--- a/Code/Results/Cases/Case_3_233/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_233/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.474820967272649</v>
+        <v>2.056371915657621</v>
       </c>
       <c r="C2">
-        <v>0.4772090733251275</v>
+        <v>0.122411137442441</v>
       </c>
       <c r="D2">
-        <v>0.3567461676000079</v>
+        <v>0.2119726927694643</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.585274066192255</v>
+        <v>3.725823492963798</v>
       </c>
       <c r="G2">
-        <v>0.0007877899231238639</v>
+        <v>0.002526259695164789</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4065940303726165</v>
+        <v>0.3056714185922118</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.989192525226713</v>
+        <v>1.962011255563993</v>
       </c>
       <c r="C3">
-        <v>0.411258184267183</v>
+        <v>0.1063295962782718</v>
       </c>
       <c r="D3">
-        <v>0.3195307426171183</v>
+        <v>0.2018537889925938</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.79317767184645</v>
+        <v>3.523603966045528</v>
       </c>
       <c r="G3">
-        <v>0.0008001603770930162</v>
+        <v>0.002533270378531661</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3558985542584168</v>
+        <v>0.2950711110161279</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.700207819029174</v>
+        <v>1.906062748334932</v>
       </c>
       <c r="C4">
-        <v>0.3718334025700472</v>
+        <v>0.09646448688360465</v>
       </c>
       <c r="D4">
-        <v>0.2973555629085212</v>
+        <v>0.1956516979420542</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.320944786204933</v>
+        <v>3.400570806908348</v>
       </c>
       <c r="G4">
-        <v>0.0008078880334817733</v>
+        <v>0.002537792721836755</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.325726813728437</v>
+        <v>0.2887651510484233</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.584426284484834</v>
+        <v>1.88375973595538</v>
       </c>
       <c r="C5">
-        <v>0.3559852298519388</v>
+        <v>0.09244584075437956</v>
       </c>
       <c r="D5">
-        <v>0.2884614799015424</v>
+        <v>0.1931264321116828</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.131523495541643</v>
+        <v>3.350708272844258</v>
       </c>
       <c r="G5">
-        <v>0.000811074721860594</v>
+        <v>0.002539690591864174</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3136397096645425</v>
+        <v>0.286245966390581</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.56531167463686</v>
+        <v>1.88008621434011</v>
       </c>
       <c r="C6">
-        <v>0.353365432638185</v>
+        <v>0.09177861299838241</v>
       </c>
       <c r="D6">
-        <v>0.2869924910474566</v>
+        <v>0.1927072246958943</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.100238075996259</v>
+        <v>3.342444930876979</v>
       </c>
       <c r="G6">
-        <v>0.000811606258874592</v>
+        <v>0.00254000905882336</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3116443554620218</v>
+        <v>0.2858306984538643</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.698638730128437</v>
+        <v>1.905759956867087</v>
       </c>
       <c r="C7">
-        <v>0.3716188497495807</v>
+        <v>0.096410285131725</v>
       </c>
       <c r="D7">
-        <v>0.297235071080749</v>
+        <v>0.1956176334867479</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.318378625848055</v>
+        <v>3.399897244842407</v>
       </c>
       <c r="G7">
-        <v>0.0008079308526883968</v>
+        <v>0.002537818094299745</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3255629999190717</v>
+        <v>0.2887309723327292</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.305256548833256</v>
+        <v>2.023421140407663</v>
       </c>
       <c r="C8">
-        <v>0.4542142797660063</v>
+        <v>0.1168638578462549</v>
       </c>
       <c r="D8">
-        <v>0.3437566429559809</v>
+        <v>0.2084810446218199</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.308887960165691</v>
+        <v>3.655857597994668</v>
       </c>
       <c r="G8">
-        <v>0.0007920306298013033</v>
+        <v>0.002528631918060086</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3888953392974912</v>
+        <v>0.3019741098876239</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.585203076166295</v>
+        <v>2.270128714748239</v>
       </c>
       <c r="C9">
-        <v>0.6274014209375594</v>
+        <v>0.1570833747553877</v>
       </c>
       <c r="D9">
-        <v>0.441778492007785</v>
+        <v>0.2338221225137573</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.391273457598146</v>
+        <v>4.167233623051686</v>
       </c>
       <c r="G9">
-        <v>0.000761669318677102</v>
+        <v>0.002512335459138849</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5223574104151538</v>
+        <v>0.3295728576130728</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.609993022637013</v>
+        <v>2.461415179827668</v>
       </c>
       <c r="C10">
-        <v>0.766140754568994</v>
+        <v>0.1867565640766315</v>
       </c>
       <c r="D10">
-        <v>0.5203374935933311</v>
+        <v>0.2525527555994529</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.05331801428324</v>
+        <v>4.549385202219582</v>
       </c>
       <c r="G10">
-        <v>0.0007394790233446209</v>
+        <v>0.002501395230683662</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6288718295920859</v>
+        <v>0.3508745985885895</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.102956899862818</v>
+        <v>2.550681091079014</v>
       </c>
       <c r="C11">
-        <v>0.8331186935061226</v>
+        <v>0.2002953163007533</v>
       </c>
       <c r="D11">
-        <v>0.5581828776112729</v>
+        <v>0.261107458571189</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.85145318514395</v>
+        <v>4.724788353229712</v>
       </c>
       <c r="G11">
-        <v>0.0007293001782530398</v>
+        <v>0.002496639416310738</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6799626139834913</v>
+        <v>0.360795086510123</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.2943820406702</v>
+        <v>2.584812294743244</v>
       </c>
       <c r="C12">
-        <v>0.8591855482689255</v>
+        <v>0.2054288920741101</v>
       </c>
       <c r="D12">
-        <v>0.5728902251135253</v>
+        <v>0.264352525019433</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.16115222643185</v>
+        <v>4.791445307841855</v>
       </c>
       <c r="G12">
-        <v>0.0007254219970826356</v>
+        <v>0.002494870047180697</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6997728661355467</v>
+        <v>0.364585375499928</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.252927371987255</v>
+        <v>2.577446857582288</v>
       </c>
       <c r="C13">
-        <v>0.8535375356851773</v>
+        <v>0.2043229693009323</v>
       </c>
       <c r="D13">
-        <v>0.5697046659596481</v>
+        <v>0.2636533823620937</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.09409513175672</v>
+        <v>4.777078881858131</v>
       </c>
       <c r="G13">
-        <v>0.0007262584977638981</v>
+        <v>0.002495249712579989</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6954842290825667</v>
+        <v>0.3637675656267021</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.118604465650549</v>
+        <v>2.553482481443666</v>
       </c>
       <c r="C14">
-        <v>0.8352481479399216</v>
+        <v>0.2007175179606691</v>
       </c>
       <c r="D14">
-        <v>0.5593848450891414</v>
+        <v>0.261374316197049</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.87677351468182</v>
+        <v>4.730267474656443</v>
       </c>
       <c r="G14">
-        <v>0.0007289816676577164</v>
+        <v>0.002496493218159302</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6815825825117656</v>
+        <v>0.3611062391910309</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.036976640324951</v>
+        <v>2.538846486920647</v>
       </c>
       <c r="C15">
-        <v>0.8241420243308539</v>
+        <v>0.1985099818973026</v>
       </c>
       <c r="D15">
-        <v>0.5531150830557294</v>
+        <v>0.2599790704979057</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.74467694275103</v>
+        <v>4.701625152144743</v>
       </c>
       <c r="G15">
-        <v>0.0007306462184235319</v>
+        <v>0.002497259004242126</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6731305652576935</v>
+        <v>0.3594804930076805</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.578387972070345</v>
+        <v>2.455627097708998</v>
       </c>
       <c r="C16">
-        <v>0.7618532279716703</v>
+        <v>0.1858726660707077</v>
       </c>
       <c r="D16">
-        <v>0.5179125119035461</v>
+        <v>0.2519944295173389</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.00211838505092</v>
+        <v>4.537954547029216</v>
       </c>
       <c r="G16">
-        <v>0.0007401416070475862</v>
+        <v>0.002501710461866509</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6255927737145726</v>
+        <v>0.3502309472938521</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.304497720327731</v>
+        <v>2.40515400405252</v>
       </c>
       <c r="C17">
-        <v>0.7247257531422804</v>
+        <v>0.1781310671123038</v>
       </c>
       <c r="D17">
-        <v>0.4969039818154215</v>
+        <v>0.2471053188591554</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.558269486207138</v>
+        <v>4.43795551157416</v>
       </c>
       <c r="G17">
-        <v>0.0007459376588247259</v>
+        <v>0.002504497722658</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5971596728341098</v>
+        <v>0.344615974207386</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.149420122150389</v>
+        <v>2.376334582951415</v>
       </c>
       <c r="C18">
-        <v>0.7037241560847463</v>
+        <v>0.1736820360677598</v>
       </c>
       <c r="D18">
-        <v>0.4850137145449764</v>
+        <v>0.2442963942540359</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.30683818081917</v>
+        <v>4.380584910167556</v>
       </c>
       <c r="G18">
-        <v>0.0007492642722372374</v>
+        <v>0.00250612169124382</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5810479462237907</v>
+        <v>0.3414080282078089</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.097311214647846</v>
+        <v>2.366612981634091</v>
       </c>
       <c r="C19">
-        <v>0.6966700653258613</v>
+        <v>0.1721762828988744</v>
       </c>
       <c r="D19">
-        <v>0.4810191000301245</v>
+        <v>0.2433458629290328</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.222332364223774</v>
+        <v>4.361184982211682</v>
       </c>
       <c r="G19">
-        <v>0.0007503896952018049</v>
+        <v>0.00250667511974097</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5756321165753349</v>
+        <v>0.3403255738274993</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.333393647216894</v>
+        <v>2.410505041206079</v>
       </c>
       <c r="C20">
-        <v>0.7286405243753507</v>
+        <v>0.1789547804663698</v>
       </c>
       <c r="D20">
-        <v>0.4991198936033356</v>
+        <v>0.247625440751392</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.605109307372686</v>
+        <v>4.44858536811816</v>
       </c>
       <c r="G20">
-        <v>0.0007453214719958992</v>
+        <v>0.002504198861710342</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6001608010602553</v>
+        <v>0.3452114545716825</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.157921236506979</v>
+        <v>2.560512455188643</v>
       </c>
       <c r="C21">
-        <v>0.8405997248703727</v>
+        <v>0.2017763356671196</v>
       </c>
       <c r="D21">
-        <v>0.5624051551993432</v>
+        <v>0.2620435760207727</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.94039075555042</v>
+        <v>4.744010635710595</v>
       </c>
       <c r="G21">
-        <v>0.0007281825542965673</v>
+        <v>0.002496127115993865</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6856524971127271</v>
+        <v>0.3618870188299326</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.725066392572785</v>
+        <v>2.660465948449655</v>
       </c>
       <c r="C22">
-        <v>0.9179707199078564</v>
+        <v>0.2167313107301823</v>
       </c>
       <c r="D22">
-        <v>0.6060048723039984</v>
+        <v>0.2714995482415645</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.85747742487047</v>
+        <v>4.938466648969836</v>
       </c>
       <c r="G22">
-        <v>0.0007168358938442865</v>
+        <v>0.002491035584401222</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.744280156002219</v>
+        <v>0.3729816472690857</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.41942929003676</v>
+        <v>2.606942050775558</v>
       </c>
       <c r="C23">
-        <v>0.8762331973751714</v>
+        <v>0.2087455989701823</v>
       </c>
       <c r="D23">
-        <v>0.5825013230463867</v>
+        <v>0.2664494780669031</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.36339283105769</v>
+        <v>4.834551930613543</v>
       </c>
       <c r="G23">
-        <v>0.0007229096586674848</v>
+        <v>0.002493736282976472</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7127045706986905</v>
+        <v>0.3670421124568719</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.320322433257161</v>
+        <v>2.408085220217288</v>
       </c>
       <c r="C24">
-        <v>0.7268695971060879</v>
+        <v>0.1785823743815911</v>
       </c>
       <c r="D24">
-        <v>0.4981175001572069</v>
+        <v>0.2473902878082868</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.583921466977614</v>
+        <v>4.443779236496795</v>
       </c>
       <c r="G24">
-        <v>0.0007456000666725693</v>
+        <v>0.00250433390973891</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5988032656072733</v>
+        <v>0.3449421750914325</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.22655913882403</v>
+        <v>2.201647925993029</v>
       </c>
       <c r="C25">
-        <v>0.5789214513275454</v>
+        <v>0.146185348816573</v>
       </c>
       <c r="D25">
-        <v>0.4143112290469446</v>
+        <v>0.2269499776279673</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.808607870359822</v>
+        <v>4.027811733591022</v>
       </c>
       <c r="G25">
-        <v>0.0007698307400779201</v>
+        <v>0.002516561681584822</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4849991345017344</v>
+        <v>0.3219290194837185</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_233/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_233/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.056371915657621</v>
+        <v>3.474820967272763</v>
       </c>
       <c r="C2">
-        <v>0.122411137442441</v>
+        <v>0.4772090733250423</v>
       </c>
       <c r="D2">
-        <v>0.2119726927694643</v>
+        <v>0.3567461676001358</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.725823492963798</v>
+        <v>6.585274066192341</v>
       </c>
       <c r="G2">
-        <v>0.002526259695164789</v>
+        <v>0.000787789923112852</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3056714185922118</v>
+        <v>0.4065940303724886</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.962011255563993</v>
+        <v>2.989192525227054</v>
       </c>
       <c r="C3">
-        <v>0.1063295962782718</v>
+        <v>0.4112581842671545</v>
       </c>
       <c r="D3">
-        <v>0.2018537889925938</v>
+        <v>0.3195307426168768</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.523603966045528</v>
+        <v>5.793177671846507</v>
       </c>
       <c r="G3">
-        <v>0.002533270378531661</v>
+        <v>0.0008001603770827697</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2950711110161279</v>
+        <v>0.3558985542584878</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.906062748334932</v>
+        <v>2.700207819029288</v>
       </c>
       <c r="C4">
-        <v>0.09646448688360465</v>
+        <v>0.3718334025702745</v>
       </c>
       <c r="D4">
-        <v>0.1956516979420542</v>
+        <v>0.2973555629084643</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.400570806908348</v>
+        <v>5.32094478620499</v>
       </c>
       <c r="G4">
-        <v>0.002537792721836755</v>
+        <v>0.0008078880335288478</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2887651510484233</v>
+        <v>0.3257268137282949</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.88375973595538</v>
+        <v>2.584426284485062</v>
       </c>
       <c r="C5">
-        <v>0.09244584075437956</v>
+        <v>0.3559852298515693</v>
       </c>
       <c r="D5">
-        <v>0.1931264321116828</v>
+        <v>0.2884614799018976</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.350708272844258</v>
+        <v>5.131523495541614</v>
       </c>
       <c r="G5">
-        <v>0.002539690591864174</v>
+        <v>0.0008110747219131049</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.286245966390581</v>
+        <v>0.3136397096644714</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.88008621434011</v>
+        <v>2.565311674637087</v>
       </c>
       <c r="C6">
-        <v>0.09177861299838241</v>
+        <v>0.3533654326384692</v>
       </c>
       <c r="D6">
-        <v>0.1927072246958943</v>
+        <v>0.2869924910473998</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.342444930876979</v>
+        <v>5.100238075996316</v>
       </c>
       <c r="G6">
-        <v>0.00254000905882336</v>
+        <v>0.0008116062588644288</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2858306984538643</v>
+        <v>0.3116443554622066</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.905759956867087</v>
+        <v>2.698638730128494</v>
       </c>
       <c r="C7">
-        <v>0.096410285131725</v>
+        <v>0.3716188497496375</v>
       </c>
       <c r="D7">
-        <v>0.1956176334867479</v>
+        <v>0.2972350710809337</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.399897244842407</v>
+        <v>5.318378625847998</v>
       </c>
       <c r="G7">
-        <v>0.002537818094299745</v>
+        <v>0.0008079308526612868</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2887309723327292</v>
+        <v>0.325562999919228</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.023421140407663</v>
+        <v>3.305256548833256</v>
       </c>
       <c r="C8">
-        <v>0.1168638578462549</v>
+        <v>0.4542142797660063</v>
       </c>
       <c r="D8">
-        <v>0.2084810446218199</v>
+        <v>0.3437566429564498</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.655857597994668</v>
+        <v>6.308887960165663</v>
       </c>
       <c r="G8">
-        <v>0.002528631918060086</v>
+        <v>0.0007920306297061236</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3019741098876239</v>
+        <v>0.3888953392974912</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.270128714748239</v>
+        <v>4.585203076166124</v>
       </c>
       <c r="C9">
-        <v>0.1570833747553877</v>
+        <v>0.6274014209375594</v>
       </c>
       <c r="D9">
-        <v>0.2338221225137573</v>
+        <v>0.441778492007785</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.167233623051686</v>
+        <v>8.391273457598089</v>
       </c>
       <c r="G9">
-        <v>0.002512335459138849</v>
+        <v>0.0007616693185686206</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3295728576130728</v>
+        <v>0.5223574104151112</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.461415179827668</v>
+        <v>5.609993022637241</v>
       </c>
       <c r="C10">
-        <v>0.1867565640766315</v>
+        <v>0.7661407545684256</v>
       </c>
       <c r="D10">
-        <v>0.2525527555994529</v>
+        <v>0.5203374935936438</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.549385202219582</v>
+        <v>10.05331801428349</v>
       </c>
       <c r="G10">
-        <v>0.002501395230683662</v>
+        <v>0.0007394790233191874</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3508745985885895</v>
+        <v>0.6288718295921143</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.550681091079014</v>
+        <v>6.102956899863102</v>
       </c>
       <c r="C11">
-        <v>0.2002953163007533</v>
+        <v>0.8331186935061226</v>
       </c>
       <c r="D11">
-        <v>0.261107458571189</v>
+        <v>0.5581828776110456</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.724788353229712</v>
+        <v>10.85145318514378</v>
       </c>
       <c r="G11">
-        <v>0.002496639416310738</v>
+        <v>0.0007293001780244193</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.360795086510123</v>
+        <v>0.6799626139835198</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.584812294743244</v>
+        <v>6.29438204067003</v>
       </c>
       <c r="C12">
-        <v>0.2054288920741101</v>
+        <v>0.8591855482689255</v>
       </c>
       <c r="D12">
-        <v>0.264352525019433</v>
+        <v>0.5728902251137811</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.791445307841855</v>
+        <v>11.16115222643185</v>
       </c>
       <c r="G12">
-        <v>0.002494870047180697</v>
+        <v>0.0007254219973169037</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.364585375499928</v>
+        <v>0.6997728661356035</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.577446857582288</v>
+        <v>6.252927371987141</v>
       </c>
       <c r="C13">
-        <v>0.2043229693009323</v>
+        <v>0.8535375356843815</v>
       </c>
       <c r="D13">
-        <v>0.2636533823620937</v>
+        <v>0.5697046659594207</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.777078881858131</v>
+        <v>11.0940951317566</v>
       </c>
       <c r="G13">
-        <v>0.002495249712579989</v>
+        <v>0.0007262584977737294</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3637675656267021</v>
+        <v>0.6954842290824956</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.553482481443666</v>
+        <v>6.118604465650151</v>
       </c>
       <c r="C14">
-        <v>0.2007175179606691</v>
+        <v>0.8352481479400353</v>
       </c>
       <c r="D14">
-        <v>0.261374316197049</v>
+        <v>0.5593848450886867</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.730267474656443</v>
+        <v>10.87677351468176</v>
       </c>
       <c r="G14">
-        <v>0.002496493218159302</v>
+        <v>0.0007289816676784371</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3611062391910309</v>
+        <v>0.681582582511723</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.538846486920647</v>
+        <v>6.036976640324724</v>
       </c>
       <c r="C15">
-        <v>0.1985099818973026</v>
+        <v>0.8241420243303992</v>
       </c>
       <c r="D15">
-        <v>0.2599790704979057</v>
+        <v>0.5531150830553031</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.701625152144743</v>
+        <v>10.74467694275091</v>
       </c>
       <c r="G15">
-        <v>0.002497259004242126</v>
+        <v>0.0007306462184295753</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3594804930076805</v>
+        <v>0.6731305652579067</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.455627097708998</v>
+        <v>5.578387972070288</v>
       </c>
       <c r="C16">
-        <v>0.1858726660707077</v>
+        <v>0.7618532279717272</v>
       </c>
       <c r="D16">
-        <v>0.2519944295173389</v>
+        <v>0.5179125119033756</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.537954547029216</v>
+        <v>10.00211838505092</v>
       </c>
       <c r="G16">
-        <v>0.002501710461866509</v>
+        <v>0.0007401416072891707</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3502309472938521</v>
+        <v>0.625592773714871</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.40515400405252</v>
+        <v>5.304497720327504</v>
       </c>
       <c r="C17">
-        <v>0.1781310671123038</v>
+        <v>0.7247257531423088</v>
       </c>
       <c r="D17">
-        <v>0.2471053188591554</v>
+        <v>0.4969039818152226</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.43795551157416</v>
+        <v>9.558269486207166</v>
       </c>
       <c r="G17">
-        <v>0.002504497722658</v>
+        <v>0.0007459376587082529</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.344615974207386</v>
+        <v>0.597159672834124</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.376334582951415</v>
+        <v>5.149420122150502</v>
       </c>
       <c r="C18">
-        <v>0.1736820360677598</v>
+        <v>0.7037241560852294</v>
       </c>
       <c r="D18">
-        <v>0.2442963942540359</v>
+        <v>0.4850137145447775</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.380584910167556</v>
+        <v>9.306838180819142</v>
       </c>
       <c r="G18">
-        <v>0.00250612169124382</v>
+        <v>0.0007492642721278679</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3414080282078089</v>
+        <v>0.5810479462238192</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.366612981634091</v>
+        <v>5.097311214647902</v>
       </c>
       <c r="C19">
-        <v>0.1721762828988744</v>
+        <v>0.6966700653253781</v>
       </c>
       <c r="D19">
-        <v>0.2433458629290328</v>
+        <v>0.4810191000302666</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.361184982211682</v>
+        <v>9.222332364223945</v>
       </c>
       <c r="G19">
-        <v>0.00250667511974097</v>
+        <v>0.000750389695187514</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3403255738274993</v>
+        <v>0.5756321165752922</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.410505041206079</v>
+        <v>5.333393647216838</v>
       </c>
       <c r="C20">
-        <v>0.1789547804663698</v>
+        <v>0.7286405243748959</v>
       </c>
       <c r="D20">
-        <v>0.247625440751392</v>
+        <v>0.4991198936033356</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.44858536811816</v>
+        <v>9.605109307372715</v>
       </c>
       <c r="G20">
-        <v>0.002504198861710342</v>
+        <v>0.0007453214718776487</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3452114545716825</v>
+        <v>0.6001608010602837</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.560512455188643</v>
+        <v>6.157921236507491</v>
       </c>
       <c r="C21">
-        <v>0.2017763356671196</v>
+        <v>0.8405997248703443</v>
       </c>
       <c r="D21">
-        <v>0.2620435760207727</v>
+        <v>0.5624051551999401</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.744010635710595</v>
+        <v>10.94039075555065</v>
       </c>
       <c r="G21">
-        <v>0.002496127115993865</v>
+        <v>0.0007281825540710719</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3618870188299326</v>
+        <v>0.6856524971124571</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.660465948449655</v>
+        <v>6.725066392572842</v>
       </c>
       <c r="C22">
-        <v>0.2167313107301823</v>
+        <v>0.9179707199077995</v>
       </c>
       <c r="D22">
-        <v>0.2714995482415645</v>
+        <v>0.6060048723041405</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.938466648969836</v>
+        <v>11.85747742487058</v>
       </c>
       <c r="G22">
-        <v>0.002491035584401222</v>
+        <v>0.0007168358938356681</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3729816472690857</v>
+        <v>0.7442801560023753</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.606942050775558</v>
+        <v>6.419429290036817</v>
       </c>
       <c r="C23">
-        <v>0.2087455989701823</v>
+        <v>0.8762331973742903</v>
       </c>
       <c r="D23">
-        <v>0.2664494780669031</v>
+        <v>0.5825013230464435</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.834551930613543</v>
+        <v>11.36339283105735</v>
       </c>
       <c r="G23">
-        <v>0.002493736282976472</v>
+        <v>0.0007229096590435737</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3670421124568719</v>
+        <v>0.7127045706987758</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.408085220217288</v>
+        <v>5.320322433257274</v>
       </c>
       <c r="C24">
-        <v>0.1785823743815911</v>
+        <v>0.7268695971055763</v>
       </c>
       <c r="D24">
-        <v>0.2473902878082868</v>
+        <v>0.4981175001567237</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.443779236496795</v>
+        <v>9.583921466977671</v>
       </c>
       <c r="G24">
-        <v>0.00250433390973891</v>
+        <v>0.0007456000666663643</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3449421750914325</v>
+        <v>0.5988032656074012</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.201647925993029</v>
+        <v>4.226559138824086</v>
       </c>
       <c r="C25">
-        <v>0.146185348816573</v>
+        <v>0.5789214513276022</v>
       </c>
       <c r="D25">
-        <v>0.2269499776279673</v>
+        <v>0.4143112290468167</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.027811733591022</v>
+        <v>7.808607870359651</v>
       </c>
       <c r="G25">
-        <v>0.002516561681584822</v>
+        <v>0.0007698307403113246</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3219290194837185</v>
+        <v>0.484999134501706</v>
       </c>
       <c r="M25">
         <v>0</v>
